--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/Myanmar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B73ED3-CC73-C54D-8BB7-F9BF92B8F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C17E648-3CF0-074E-93AD-745C7E8E4400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="740" windowWidth="18520" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView xWindow="35300" yWindow="-360" windowWidth="28500" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="170">
   <si>
     <t>Category</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Do you approve or disapprove of the job performance of the leadership of this country?</t>
-  </si>
-  <si>
-    <t>WP112</t>
   </si>
   <si>
     <t>WP137</t>
@@ -241,12 +238,6 @@
     <t>In this country, do you have confidence in each of the following, or not? How about the military?</t>
   </si>
   <si>
-    <t>Confidence in local police force</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In the city or area where you live, do you have confidence in the local police force, or not?</t>
-  </si>
-  <si>
     <t>Prosocial</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>Have you done any of the following in the past month? How about helped a stranger or someone you didn't know who needed help?</t>
   </si>
   <si>
-    <t>WP111</t>
-  </si>
-  <si>
     <t>WP1325</t>
   </si>
   <si>
@@ -303,31 +291,16 @@
     <t xml:space="preserve"> Ideally, if you had the opportunity, would you like to move PERMANENTLY to another country, or would you prefer to continue living in this country?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Have you done any of the following in the past month? How about voiced your opinion to a public official?</t>
-  </si>
-  <si>
-    <t>Voicing opinion to public official</t>
-  </si>
-  <si>
     <t>Intention to move to another country</t>
   </si>
   <si>
     <t>Satisifaction with freedom to choose</t>
   </si>
   <si>
-    <t>Minorities</t>
-  </si>
-  <si>
     <t>WP103</t>
   </si>
   <si>
     <t>Is the city or area where you live a good place or not a good place to live for racial and ethnic minorities?</t>
-  </si>
-  <si>
-    <t>Minority friendly</t>
-  </si>
-  <si>
-    <t>Freedom of Media</t>
   </si>
   <si>
     <t>WP10251</t>
@@ -628,6 +601,12 @@
   </si>
   <si>
     <t>Civil society</t>
+  </si>
+  <si>
+    <t>racial/ ethnic minorities</t>
+  </si>
+  <si>
+    <t>freedom of media</t>
   </si>
 </sst>
 </file>
@@ -699,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,24 +696,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1064,10 +1053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
-  <dimension ref="A1:G54"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,75 +1094,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,16 +1167,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1197,185 +1184,181 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8" t="s">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="F15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>137</v>
+      <c r="F16" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -1383,19 +1366,19 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -1403,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -1423,39 +1406,39 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1463,99 +1446,90 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1563,60 +1537,61 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1626,19 +1601,19 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1646,18 +1621,17 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1667,39 +1641,36 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1707,198 +1678,193 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="D34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="D35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -1906,135 +1872,156 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2042,78 +2029,51 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G54" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G54">
-      <sortCondition ref="B1:B54"/>
+  <autoFilter ref="A1:G52" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Gallup World Poll"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
+      <sortCondition ref="C1:C52"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C17E648-3CF0-074E-93AD-745C7E8E4400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38D9F1-3FD2-A74D-B4C8-81269F5833D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35300" yWindow="-360" windowWidth="28500" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView xWindow="10300" yWindow="740" windowWidth="18380" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="172">
   <si>
     <t>Category</t>
   </si>
@@ -607,6 +607,15 @@
   </si>
   <si>
     <t>freedom of media</t>
+  </si>
+  <si>
+    <t>RESPONSE OPTIONS
+A rural area or on a farm* A small town or village* A large city* (DK)* (Refused)* A suburb of a large city*
+RESPONSE VALUES
+1* 2* 3* 4* 5* 6*</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
@@ -712,7 +721,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1056,8 +1085,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1094,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="77.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="81.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
@@ -1340,6 +1369,9 @@
       <c r="F15" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1360,6 +1392,9 @@
       <c r="F16" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="G16" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1380,6 +1415,9 @@
       <c r="F17" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G17" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1400,6 +1438,9 @@
       <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G18" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1420,6 +1461,9 @@
       <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
@@ -1440,6 +1484,9 @@
       <c r="F20" s="14" t="s">
         <v>126</v>
       </c>
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1460,6 +1507,9 @@
       <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1551,6 +1601,9 @@
       <c r="F26" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="G26" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1571,6 +1624,9 @@
       <c r="F27" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1591,7 +1647,9 @@
       <c r="F28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G28"/>
+      <c r="G28" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1612,6 +1670,9 @@
       <c r="F29" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1632,6 +1693,9 @@
       <c r="F30" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1652,8 +1716,11 @@
       <c r="F31" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1669,6 +1736,9 @@
       <c r="E32" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1689,7 +1759,9 @@
       <c r="F33" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G33"/>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="34" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1710,6 +1782,9 @@
       <c r="F34" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="G34" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1730,7 +1805,9 @@
       <c r="F35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1846,6 +1923,9 @@
       <c r="F41" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1866,6 +1946,9 @@
       <c r="F42" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1886,6 +1969,9 @@
       <c r="F43" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G43" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -1906,6 +1992,9 @@
       <c r="F44" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G44" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -1926,6 +2015,9 @@
       <c r="F45" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G45" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -1946,6 +2038,9 @@
       <c r="F46" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G46" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1966,6 +2061,9 @@
       <c r="F47" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="G47" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1986,8 +2084,11 @@
       <c r="F48" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2006,8 +2107,11 @@
       <c r="F49" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2024,7 +2128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2070,8 +2174,11 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="satisfied">
+      <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38D9F1-3FD2-A74D-B4C8-81269F5833D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D7DA8-CB27-794F-8453-8B904DFF9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="740" windowWidth="18380" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="13480" windowHeight="18380" activeTab="1" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ACLED" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$52</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="201">
   <si>
     <t>Category</t>
   </si>
@@ -616,6 +617,93 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>ACLED</t>
+  </si>
+  <si>
+    <t>event_id_cnty</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric event identifier by number and country acronym. This identifier remains constant even when the event details are updated.</t>
+  </si>
+  <si>
+    <t>event_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The date on which the event took place. Recorded as Year-Month-Day.</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>The year in which the event took place.</t>
+  </si>
+  <si>
+    <t>disorder_type</t>
+  </si>
+  <si>
+    <t>The disorder category an event belongs to.</t>
+  </si>
+  <si>
+    <t>event_type</t>
+  </si>
+  <si>
+    <t>The type of event; further specifies the nature of the event.</t>
+  </si>
+  <si>
+    <t>actor1</t>
+  </si>
+  <si>
+    <t>actor2</t>
+  </si>
+  <si>
+    <t>One of two main actors involved in the event (does not necessarily indicate the aggressor).</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>A unique three-digit numeric code assigned to each country or territory according to ISO 3166.</t>
+  </si>
+  <si>
+    <t>Myanmar is 104</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>The country or territory in which the event took place.</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>The largest sub-national administrative region in which the event took place.</t>
+  </si>
+  <si>
+    <t>The second largest sub-national administrative region in which the event took place.</t>
+  </si>
+  <si>
+    <t>The third largest sub-national administrative region in which the event took place.</t>
+  </si>
+  <si>
+    <t>The name of the location at which the event took place.</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>fatalities</t>
+  </si>
+  <si>
+    <t>The number of reported fatalities arising from an event. When there are conflicting reports, the most conservative estimate is recorded.</t>
   </si>
 </sst>
 </file>
@@ -687,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,16 +800,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -749,6 +832,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1085,8 +1178,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,23 +1558,23 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G20" t="s">
@@ -2174,11 +2267,221 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="satisfied">
+      <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A5539-1D73-544A-88D1-C75A6BAEF899}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="satisfied">
       <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D7DA8-CB27-794F-8453-8B904DFF9AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03478535-A054-E94C-A4A8-97CB18B2D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="13480" windowHeight="18380" activeTab="1" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView minimized="1" xWindow="280" yWindow="1580" windowWidth="27800" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ACLED" sheetId="2" r:id="rId2"/>
+    <sheet name="Uppsala" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$52</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="253">
   <si>
     <t>Category</t>
   </si>
@@ -704,6 +705,162 @@
   </si>
   <si>
     <t>The number of reported fatalities arising from an event. When there are conflicting reports, the most conservative estimate is recorded.</t>
+  </si>
+  <si>
+    <t>UCDP</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>A unique numeric ID identifying each event.</t>
+  </si>
+  <si>
+    <t>Year of the event</t>
+  </si>
+  <si>
+    <t>active_year</t>
+  </si>
+  <si>
+    <t>1: if the event belongs to an active conflict/dyad/actor-year 0: otherwise</t>
+  </si>
+  <si>
+    <t>type_of_violence</t>
+  </si>
+  <si>
+    <t>Type of UCDP conflict</t>
+  </si>
+  <si>
+    <t>1: state-based conflict 2: non-state conflict 3: one-sided violence</t>
+  </si>
+  <si>
+    <t>conflict_new_id</t>
+  </si>
+  <si>
+    <t>A unique conflict identification</t>
+  </si>
+  <si>
+    <t>dyad_new_id</t>
+  </si>
+  <si>
+    <t>A unique conflict identification code for each individual dyad in the dataset.</t>
+  </si>
+  <si>
+    <t>dyad_name</t>
+  </si>
+  <si>
+    <t>Name of the conflict dyad creating the event.  A dyad is the pair of two actors engaged in violence (in the case of one-sided violence, the perpetrator of violence and civilians).  The two sides are separated by an ASCII dash (e.g. Government of Russia - Caucasus Emirate, Taleban - civilians).</t>
+  </si>
+  <si>
+    <t>side_a_new_id</t>
+  </si>
+  <si>
+    <t>A unique ID of side A.  Fully compatible with UCDP/PRIO Armed Conflict Dataset, UCDP Non-State Dataset and UCDP OneSided Violence Dataset versions 17.1 and later.</t>
+  </si>
+  <si>
+    <t>side_a</t>
+  </si>
+  <si>
+    <t>The name of Side A in the dyad. In state-based conflicts always a government. In one-sided violence always the perpetrating party.</t>
+  </si>
+  <si>
+    <t>side_b_new_id</t>
+  </si>
+  <si>
+    <t>unique ID of side B.  Fully compatible with UCDP/PRIO Armed Conflict Dataset, UCDP Non-State Dataset and UCDP OneSided Violence Dataset versions 17.1 and later.  Warning: Not compatible with pre-17.1 versions of any UCDP datasets.</t>
+  </si>
+  <si>
+    <t>side_b</t>
+  </si>
+  <si>
+    <t>The name of Side B in the dyad. In state-based always the rebel movement or rivalling government. In one-sided violence always “civilians”.</t>
+  </si>
+  <si>
+    <t>adm_1</t>
+  </si>
+  <si>
+    <t>adm_2</t>
+  </si>
+  <si>
+    <t>Name of the first order (largest) administrative division where the event took place</t>
+  </si>
+  <si>
+    <t>Name of the second order administrative division where the event took place</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>event_clarity</t>
+  </si>
+  <si>
+    <t>Name of the country in which the event takes place.</t>
+  </si>
+  <si>
+    <t>Gleditsch and Ward number of the country in which the event takes place.</t>
+  </si>
+  <si>
+    <t>Region where the event took place. One of following: {Africa, Americas, Asia, Europe, Middle East}</t>
+  </si>
+  <si>
+    <t>1 (high) for events where the reporting allows the coder to identify the event in full. That is, events where the individual happening is described by the original source in a sufficiently detailed way as to identify individual incidents, i.e. separate activities of fighting in a single location:  Example of such reporting: “2 people where killed in Banda Aceh town on the 9th of December in fighting between the government and GAM when a car exploded in a main market.”  2 (lower) for events where an aggregation of information was already made by the source material that is impossible to undo in the coding process. Such events are described by the original source only as aggregates (totals) of multiple separate activities of fighting spanning over a longer period than a single, clearly defined day.  Examples of such reporting: “The Ukrainian government informs that 29 people have died in the past six days in a number of clashes with the separatists along the line of conflict”.</t>
+  </si>
+  <si>
+    <t>date_prec</t>
+  </si>
+  <si>
+    <t>How precise the information is about the date of an event. 1: exact date of event is known; 2: the date of the event is known only within a 2-6 day range. 3: only the week of the event is known 4: the date of the event is known only within an 830 day range or only the month when the event has taken place is known 5: the date of the event is known only within a range longer than one month but not more than one calendar year</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>deaths_a</t>
+  </si>
+  <si>
+    <t>deaths_b</t>
+  </si>
+  <si>
+    <t>deahts_civilians</t>
+  </si>
+  <si>
+    <t>deaths_unknown</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>The earliest possible date when the event has taken place.</t>
+  </si>
+  <si>
+    <t>The last possible date when the event has taken place.</t>
+  </si>
+  <si>
+    <t>The best estimate of deaths sustained by side a.  Always 0 for one-sided violence events.</t>
+  </si>
+  <si>
+    <t>The best estimate of deaths sustained by side b.  Always 0 for one-sided violence events.</t>
+  </si>
+  <si>
+    <t>The best estimate of dead civilians in the event.  For non-state or state-based events, this is the number of collateral damage resulting in fighting between side a and side b. For one-sided violence, it is the number of civilians killed by side a.</t>
+  </si>
+  <si>
+    <t>The best estimate of deaths of persons of unknown status.</t>
+  </si>
+  <si>
+    <t>The best (most likely) estimate of total fatalities resulting from an event. It is always the sum of deaths_a, deaths_b, deaths_civilians and deaths_unknown.</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>The lowest reliable estimate of total fatalities</t>
   </si>
 </sst>
 </file>
@@ -743,7 +900,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,6 +919,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -775,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -787,24 +950,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1178,8 +1365,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1595,7 @@
       <c r="D12" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1425,7 +1612,7 @@
       <c r="D13" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1655,46 +1842,46 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" spans="1:7" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1721,7 +1908,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1833,7 +2020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1856,53 +2043,53 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2010,7 +2197,7 @@
       <c r="D41" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -2033,7 +2220,7 @@
       <c r="D42" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -2181,26 +2368,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2267,10 +2454,10 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="satisfied">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="satisfied">
       <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2282,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92A5539-1D73-544A-88D1-C75A6BAEF899}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2477,6 +2664,346 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="satisfied">
+      <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAABFCF7-3ACE-2C4B-85CC-F943F8E3E26A}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="satisfied">
       <formula>NOT(ISERROR(SEARCH("satisfied",F1)))</formula>
     </cfRule>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03478535-A054-E94C-A4A8-97CB18B2D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6C50-DD3D-264F-AE3F-5E9674E28CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="280" yWindow="1580" windowWidth="27800" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView xWindow="31260" yWindow="-620" windowWidth="27800" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Uppsala" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="265">
   <si>
     <t>Category</t>
   </si>
@@ -861,6 +861,48 @@
   </si>
   <si>
     <t>The lowest reliable estimate of total fatalities</t>
+  </si>
+  <si>
+    <t>WP30</t>
+  </si>
+  <si>
+    <t>WP31</t>
+  </si>
+  <si>
+    <t>Are you satisfied or dissatisfied with your standard of living, all the things you can buy and do?</t>
+  </si>
+  <si>
+    <t>Right now, do you feel your standard of living is getting better or getting worse?</t>
+  </si>
+  <si>
+    <t>WP3121</t>
+  </si>
+  <si>
+    <t>To which country would you like to move? (Asked only of those who would like to move to another country.) (FIRST RESPONSE)</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfaction with standard of living </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend standard of living </t>
+  </si>
+  <si>
+    <t>RESPONSE OPTIONS
+Search code list* United States* Egypt* Morocco* Lebanon* Saudi Arabia* Jordan* Syria* Turkiye* Pakistan* Indonesia* Bangladesh* United Kingdom* France* Germany* Netherlands* Belgium* Spain* Italy* Poland* Hungary* Czech Republic* Romania* Sweden* Greece* Denmark* Iran* Hong Kong* Singapore* Japan* China* India* Venezuela* Brazil* Mexico* Nigeria* Kenya* Tanzania* Israel* Palestinian Territories* Ghana* Uganda* Benin* Madagascar* Malawi* South Africa* Canada* Australia* Philippines* Sri Lanka* Vietnam* Thailand* Cambodia* Laos* Myanmar* New Zealand* Angola* Botswana* HOLD* HOLD* Ethiopia* Mali* Mauritania* Mozambique* Niger* Rwanda* Senegal* Zambia* South Korea* Taiwan* Afghanistan* Belarus* Georgia* Kazakhstan* Kyrgyzstan* Moldova* Russia* Ukraine* Burkina Faso* Cameroon* Sierra Leone* Zimbabwe* Costa Rica* Albania* Algeria* Andorra* Antigua &amp; Barbuda* Argentina* Armenia* Austria* Azerbaijan* Bahamas* Bahrain* Barbados* Belize* Bhutan* Bolivia* Bosnia and Herzegovina* Brunei* Bulgaria* Burundi* Cape Verde* Central African Republic* Chad* Chile* Colombia* Comoros* Congo (Kinshasa)* Congo Brazzaville* Croatia* Cuba* Cyprus* Djibouti* Dominica* Dominican Republic* Ecuador* El Salvador* Equatorial Guinea* Eritrea* Estonia* Fiji* Finland* Gabon* Grenada* Guatemala* Guinea* Guinea-Bissau* Guyana* Haiti* Honduras* Iceland* Iraq* Ireland* Island Nations (11)* Ivory Coast* Jamaica* Kiribati* Kuwait* Latvia* Lesotho* Liberia* Libya* Lichtenstein* Lithuania* Luxembourg* North Macedonia* Malaysia* Maldives* Malta* Marshall Islands* Mauritius* Micronesia* Monaco* Mongolia* Montenegro* Namibia* Nauru* Nepal* Nicaragua* North Korea* Norway* Oman* Palau* Panama* Paraguay* Peru* Portugal* Puerto Rico* Qatar* Saint Lucia* Samoa* San Marino* Sao Tome &amp; Principe* Serbia* Seychelles* Slovakia* Slovenia* Solomon Islands* Somalia* St. Kitts &amp; Nevis* St. Vincent &amp; Grenadines* Sudan* Suriname* Eswatini* Switzerland* Tajikistan* The Gambia* Togo* Tonga* Trinidad &amp; Tobago* Tunisia* Turkmenistan* Tuvalu* United Arab Emirates* Uruguay* Uzbekistan* Vanuatu* Yemen* Kosovo* Somaliland region* US Hispanic* Timor Leste* Northern Cyprus* Nagorno-Karabakh Region* Papua New Guinea* South Sudan* Macau* Reunion Island* African Country* Arab Country* Other Islamic Country* Other Country* None* (None)* (DK)* (Refused)*
+RESPONSE VALUES
+0* 1* 2* 3* 4* 5* 6* 7* 8* 9* 10* 11* 12* 13* 14* 15* 16* 17* 18* 19* 20* 21* 22* 23* 24* 25* 26* 27* 28* 29* 30* 31* 32* 33* 34* 35* 36* 37* 38* 39* 40* 41* 42* 43* 44* 45* 46* 47* 48* 49* 50* 51* 52* 53* 54* 55* 56* 57* 58* 59* 60* 61* 62* 63* 64* 65* 66* 67* 68* 69* 70* 71* 72* 73* 74* 75* 76* 77* 78* 79* 80* 81* 82* 83* 84* 85* 86* 87* 88* 89* 90* 91* 92* 93* 94* 95* 96* 97* 98* 99* 100* 101* 102* 103* 104* 105* 106* 107* 108* 109* 110* 111* 112* 113* 114* 115* 116* 117* 118* 119* 120* 121* 122* 123* 124* 125* 126* 127* 128* 129* 130* 131* 132* 133* 134* 135* 136* 137* 138* 139* 140* 141* 142* 143* 144* 145* 146* 147* 148* 149* 150* 151* 152* 153* 154* 155* 156* 157* 158* 159* 160* 161* 162* 163* 164* 165* 166* 167* 168* 169* 170* 171* 172* 173* 174* 175* 176* 177* 178* 179* 180* 181* 182* 183* 184* 185* 186* 187* 188* 189* 190* 191* 192* 193* 194* 195* 196* 197* 198* 199* 200* 201* 202* 203* 204* 205* 206* 207* 900* 901* 902* 903* 907* 997* 998* 999*</t>
+  </si>
+  <si>
+    <t>RESPONSE OPTIONS
+Getting better* (Do not read) (The same)* Getting worse* (DK)* (Refused)*
+RESPONSE VALUES
+1* 2* 3* 4* 5*</t>
   </si>
 </sst>
 </file>
@@ -900,7 +942,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +967,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -938,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,12 +1008,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1363,10 +1418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,23 +1897,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2059,7 +2114,7 @@
       <c r="E34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="11" t="s">
         <v>126</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -2082,7 +2137,7 @@
       <c r="E35" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>126</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -2150,149 +2205,140 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
         <v>98</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="44" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G45" t="s">
@@ -2307,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>126</v>
@@ -2330,13 +2376,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>126</v>
@@ -2353,13 +2399,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>126</v>
@@ -2368,89 +2414,158 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>32</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>37</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D55" t="s">
         <v>38</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G52" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
+  <autoFilter ref="A1:G55" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
     <filterColumn colId="0">
       <filters>
         <filter val="Gallup World Poll"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-      <sortCondition ref="C1:C52"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G55">
+      <sortCondition ref="C1:C55"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F1048576">
@@ -2826,7 +2941,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -2958,7 +3073,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>201</v>
       </c>
@@ -2980,7 +3095,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -2991,7 +3106,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>201</v>
       </c>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAA6C50-DD3D-264F-AE3F-5E9674E28CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6D2A5-395D-2342-948E-4DAF633720F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31260" yWindow="-620" windowWidth="27800" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1014,11 +1014,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1420,8 +1416,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,23 +1893,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2218,7 +2214,7 @@
       <c r="D39" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="14" t="s">
         <v>255</v>
       </c>
       <c r="F39" s="11" t="s">
@@ -2238,7 +2234,7 @@
       <c r="D40" t="s">
         <v>262</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="14" t="s">
         <v>256</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -2258,7 +2254,7 @@
       <c r="D41" t="s">
         <v>259</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="14" t="s">
         <v>258</v>
       </c>
       <c r="F41" s="1" t="s">

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE6D2A5-395D-2342-948E-4DAF633720F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EDEDBC-D0E8-124A-85A1-F902F3AB9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="-620" windowWidth="27800" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView xWindow="8980" yWindow="740" windowWidth="19400" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="279">
   <si>
     <t>Category</t>
   </si>
@@ -904,12 +904,55 @@
 RESPONSE VALUES
 1* 2* 3* 4* 5*</t>
   </si>
+  <si>
+    <t>WP27</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?</t>
+  </si>
+  <si>
+    <t>WP22</t>
+  </si>
+  <si>
+    <t>Count on Help</t>
+  </si>
+  <si>
+    <t>Personal Health</t>
+  </si>
+  <si>
+    <t>Are you satisfied or dissatisfied with your personal health?</t>
+  </si>
+  <si>
+    <t>WP68</t>
+  </si>
+  <si>
+    <t>Physical Pain</t>
+  </si>
+  <si>
+    <t>Did you experience the following feelings during a lot of the day yesterday? How about physical pain?</t>
+  </si>
+  <si>
+    <t>RESPONSE OPTIONS
+Yes* No* (DK)* (Refused)*</t>
+  </si>
+  <si>
+    <t>Well-rested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP60 </t>
+  </si>
+  <si>
+    <t>Now, please think about yesterday, from the morning until the end of the day. Think about where you were, what you were doing, who you were with, and how you felt. Did you feel well-rested yesterday?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -940,6 +983,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -986,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1018,6 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,10 +1465,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EAD5B6-1AAF-194F-84E0-06751B52E2D1}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2241,7 +2292,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2551,6 +2602,86 @@
       </c>
       <c r="E55" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>266</v>
+      </c>
+      <c r="C57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EDEDBC-D0E8-124A-85A1-F902F3AB9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E756A-90D1-F342-9A8F-D49C8FCE0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="740" windowWidth="19400" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="278">
   <si>
     <t>Category</t>
   </si>
@@ -933,10 +933,6 @@
   </si>
   <si>
     <t>Did you experience the following feelings during a lot of the day yesterday? How about physical pain?</t>
-  </si>
-  <si>
-    <t>RESPONSE OPTIONS
-Yes* No* (DK)* (Refused)*</t>
   </si>
   <si>
     <t>Well-rested</t>
@@ -1468,7 +1464,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2661,10 +2657,10 @@
         <v>274</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -2672,16 +2668,16 @@
         <v>266</v>
       </c>
       <c r="C59" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D59" t="s">
-        <v>276</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>275</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Myanmar Project_Code Book.xlsx
+++ b/Myanmar Project_Code Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phyllislun/Documents/GitHub/myanmar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E756A-90D1-F342-9A8F-D49C8FCE0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312BF9C3-5EE9-6F4C-AFCF-832075813543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="740" windowWidth="19400" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
+    <workbookView minimized="1" xWindow="8980" yWindow="740" windowWidth="19380" windowHeight="18380" xr2:uid="{38EF2D11-A97C-5F49-8E7A-12D4A1CCF98A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1032,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1065,6 +1071,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,8 +1473,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2620,63 +2630,63 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" spans="1:7" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" spans="1:7" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" spans="1:7" s="16" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="17" t="s">
         <v>126</v>
       </c>
     </row>
